--- a/Data/Output/티켓랭킹_240408_배혜빈.xlsx
+++ b/Data/Output/티켓랭킹_240408_배혜빈.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <x:si>
     <x:t>순위</x:t>
   </x:si>
@@ -63,6 +63,51 @@
     <x:t>1위</x:t>
   </x:si>
   <x:si>
+    <x:t>연극 〈쇄골에 천사가 잠들고 있다〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.17~2024.07.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학로 자유극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.6%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 〈무인도 탈출기〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.12~2024.07.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>링크아트센터드림 드림2관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 뮤지컬 〈광염 소나타〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.16~2024.06.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예스24스테이지 1관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4위</x:t>
+  </x:si>
+  <x:si>
     <x:t>뮤지컬 〈넥스트 투 노멀〉</x:t>
   </x:si>
   <x:si>
@@ -72,10 +117,10 @@
     <x:t>광림아트센터 BBCH홀</x:t>
   </x:si>
   <x:si>
-    <x:t>15.1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2위</x:t>
+    <x:t>7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5위</x:t>
   </x:si>
   <x:si>
     <x:t>뮤지컬 〈파가니니〉</x:t>
@@ -87,10 +132,10 @@
     <x:t>국립중앙박물관 내 극장용</x:t>
   </x:si>
   <x:si>
-    <x:t>13%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3위</x:t>
+    <x:t>6.7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6위</x:t>
   </x:si>
   <x:si>
     <x:t>DAY6 CONCERT〈Welcome to the Show〉</x:t>
@@ -102,25 +147,10 @@
     <x:t>잠실실내체육관</x:t>
   </x:si>
   <x:si>
-    <x:t>11%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 뮤지컬 〈광염 소나타〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.16~2024.06.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24스테이지 1관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5위</x:t>
+    <x:t>5.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7위</x:t>
   </x:si>
   <x:si>
     <x:t>2024 LOVESOME - 마음 방울 채집</x:t>
@@ -132,10 +162,10 @@
     <x:t>올림픽공원 88 잔디마당, KSPO DOME</x:t>
   </x:si>
   <x:si>
-    <x:t>5.6%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6위</x:t>
+    <x:t>2.9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8위</x:t>
   </x:si>
   <x:si>
     <x:t>[의정부] 2024 김창옥 토크콘서트 시즌4</x:t>
@@ -147,10 +177,76 @@
     <x:t>의정부예술의전당 대극장</x:t>
   </x:si>
   <x:si>
-    <x:t>4.1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7위</x:t>
+    <x:t>2.7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뷰티풀 민트 라이프 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.11~2024.05.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올림픽공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[광주] 2024 뮤지컬 노트르담 드 파리 한국어버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.03~2024.05.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주 예술의전당 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIPHOPPLAYA FESTIVAL 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.04~2024.05.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난지한강공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[광주] 2024 김창옥토크콘서트 시즌 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.06.16~2024.06.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 글로우 2024 (THE GLOW 2024)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.13~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일산 킨텍스(KINTEX) 제 1전시장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14위</x:t>
   </x:si>
   <x:si>
     <x:t>뮤지컬 〈빨래〉</x:t>
@@ -162,37 +258,34 @@
     <x:t>인터파크 유니플렉스 2관</x:t>
   </x:si>
   <x:si>
-    <x:t>2.7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 글로우 2024 (THE GLOW 2024)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.13~2024.04.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일산 킨텍스(KINTEX) 제 1전시장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.3%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뷰티풀 민트 라이프 2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.11~2024.05.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올림픽공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10위</x:t>
+    <x:t>15위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 [난설]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.12~2024.06.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예스24스테이지 2관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 [디아길레프]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.19~2024.06.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예스24아트원 1관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17위</x:t>
   </x:si>
   <x:si>
     <x:t>일무</x:t>
@@ -204,379 +297,778 @@
     <x:t>세종문화회관 대극장</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 〈클로저〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.23~2024.07.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플러스씨어터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베어 더 뮤지컬 （bare the musical）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.22~2024.08.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두산아트센터 연강홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 〈바스커빌 : 셜록홈즈 미스터리〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.28~2024.06.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예스24아트원 3관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[창원] 디즈니 인 콘서트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.01~2024.05.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.15아트센터 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.6%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE GREAT UNITY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.01~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DDP 전시 M2관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음악극 〈캐롤〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.05~2024.04.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학로 예그린씨어터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[대전] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 평송청소년문화센터 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 〈이프아이월유〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.12~2024.06.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예스24스테이지 3관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 〈여기， 피화당〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.07~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산](공연+체험) 매직서커스 - 제19회 부산국제매직페스티벌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.06~2024.04.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포원파크 꿈나래어린이극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 뮤지컬 천로역정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.12.09~2024.05.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명륜아트홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특전소녀전선 스프링리그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.04~2024.05.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예스24 원더로크홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[대전] 뮤지컬 캐치! 티니핑 〈두근두근 싱어롱 콘서트!〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전 우송예술회관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[인천] 나훈아 ‘2024 고마웠습니다-라스트 콘서트(LAST CONCERT)’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천 송도컨벤시아 전시장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리얼뱅크시 REAL BANKSY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.10~2024.10.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그라운드서울 기획전시관 (구.아라아트센터)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패밀리 서커스 〈이상한 나라의 앨리스〉 오리지널 내한공연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.04~2024.05.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSPIRE ARENA(인스파이어 아레나)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[김해] 2024 주현미 콘서트 [The Original]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.06.29~2024.06.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김해문화의전당 마루홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산] 연극 [편의점진상들]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.14~2024.07.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BNK부산은행조은극장 2관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[대전] 뮤지컬 [공룡이 살아있다]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스투파의 숲， 신비로운 인도 이야기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.12.22~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국립중앙박물관 기획전시실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[대구] 2024 가족라이브뮤지컬 [아기돼지삼형제]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대백프라자 10F 프라임홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산] 2024 이미자 노래인생 65주년 기념 음악회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.11~2024.05.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드림씨어터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.3%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[과천] 가족뮤지컬 [엄마까투리는 슈퍼맘]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국립과천과학관 어울림홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[울산] 2024 라이브가족뮤지컬 〈이상한나라의앨리스〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.25~2024.05.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산 북구문화예술회관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산] 2024 앤서니브라운 가족뮤지컬 〈우리아빠가최고야〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산 해운대문화회관 해운홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UFO STATION Ep.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.03~2024.05.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성수동 에스팩토리 D동 3층</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 〈벚꽃 팝콘〉 - 수원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기아트센터 소극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[여수] 2024 김창옥 토크콘서트 시즌4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.06.08~2024.06.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS칼텍스 예울마루 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[인천 남동소래아트홀] 2024 라이브 가족뮤지컬[아기돼지삼형제]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.04~2024.05.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남동소래아트홀 대공연장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[광주] 2024 YB TOUR LIGHTS ; INFINITY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.18~2024.05.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김대중컨벤션센터 다목적홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[창원] SUPER! 수요콘서트 「4월 기타리스트 장하은 콘서트」</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.24~2024.04.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산] 뮤지컬 [JUMP 점프]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KBS부산홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[청주] 뮤지컬 [이상한 과자 가게 전천당] - 천옥원， 소원과자 대결전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청주 예술의전당 대공연장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.3%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.8%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[성남] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.20~2024.04.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성남아트리움 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[구미] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구미 강동문화복지회관 천생아트홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[대전] 가족뮤지컬 [엄마까투리는 슈퍼맘]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.18~2024.05.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 〈벚꽃 팝콘〉 - 부천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부천시민회관 대공연장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[용인] 가족뮤지컬 [엄마까투리는 슈퍼맘]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용인시 평생학습관 큰어울마당</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[하남] 뮤지컬 〈친구의 전설〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하남문화예술회관 검단홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[창원] 헬로카봇 뮤지컬 시즌7 〈웰컴 투 파라다이스〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창원 3.15아트센터 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 스쿨 오브 락 월드투어-부산 (Musical School Of Rock)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.02~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[청주] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청주아트홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[수원] 뮤지컬 [공룡이 살아있다]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기아트센터 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[울산] 뮤지컬 [레베카] 10주년 기념공연 앙코르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산문화예술회관 대공연장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬 [디어 에반 핸슨] （Dear Evan Hansen）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.28~2024.06.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충무아트센터 대극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[세종] 2024 뮤지컬 노트르담 드 파리 한국어버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.10~2024.05.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세종예술의전당</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤지컬〈더 트라이브 THE TRIBE〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.19~2024.05.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세종문화회관 S씨어터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창작가무극 〈천 개의 파랑〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.12~2024.05.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술의전당 CJ 토월극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포연극 [자취]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.01~2024.04.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학로 댕로홀 (구 두레홀1관)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산] [코믹연극] 달동네</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.04.28~2024.04.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산 초콜릿 팩토리 소극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 〈실종법칙 (MISSING)〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.10~2024.05.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술의전당 자유소극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 연극 〈친정엄마와 2박3일〉 - 전주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.26~2024.04.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북대학교 삼성문화회관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 [수상한 흥신소]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.06.28~2024.04.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소극장 선물 1관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 [나는 왜 없지 않고 있는가?]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.05~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>씨어터 쿰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 [출입국사무소의 오이디푸스]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.13~2024.04.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학로 아르코예술극장 소극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극 〈욘 John〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.29~2024.04.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세종문화회관 M씨어터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[부산] 연극 [룸메이트 : 스파이크]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.19~2024.05.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어댑터 플레이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.3%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해리 포터와 불사조 기사단™ 인 콘서트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지브리 &amp; 히사이시 조 : 디오케스트라 - 부천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.20~2024.04.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부천아트센터 콘서트홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>막심 벤게로프 바이올린 리사이틀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.09~2024.04.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롯데콘서트홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히사이시 조 영화음악 콘서트 2024_부천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.12~2024.05.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 서울시향 퇴근길 콘서트 ‘영화보다 빛나는 영화음악’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG아트센터 서울, LG SIGNATURE 홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유니버설발레단 케네스 맥밀란의 〈로미오와 줄리엣〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술의전당 오페라극장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 서울스프링실내악축제 0503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술의전당 IBK 챔버홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한화와 함께하는 2024 교향악축제 - 원주시립교향악단 (4.14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.14~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술의전당 콘서트홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국립오페라단 〈한여름 밤의 꿈〉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.11~2024.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[김해] Double Won. Suite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.13~2024.04.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김해문화의전당 누리홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>루돌프 부흐빈더 베토벤 피아노 협주곡 전곡Ⅰ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.06.26~2024.06.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울바앤스피릿쇼 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성동 코엑스 B홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[박신양：제 4의 벽]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.14~2024.04.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엠엠아트센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.8%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새벽부터 황혼까지 - 스웨덴 국립미술관 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.21~2024.08.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이아트뮤지엄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.6%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.5%</x:t>
+  </x:si>
+  <x:si>
     <x:t>2.1%</x:t>
   </x:si>
   <x:si>
-    <x:t>11위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[광주] 2024 뮤지컬 노트르담 드 파리 한국어버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.03~2024.05.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주 예술의전당 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.9%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 [난설]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.12~2024.06.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24스테이지 2관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[광주] 2024 김창옥토크콘서트 시즌 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.06.16~2024.06.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIPHOPPLAYA FESTIVAL 2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.04~2024.05.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난지한강공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 〈클로저〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.23~2024.07.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플러스씨어터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>THE GREAT UNITY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.01~2024.04.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DDP 전시 M2관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베어 더 뮤지컬 （bare the musical）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.22~2024.08.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두산아트센터 연강홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 〈여기， 피화당〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.07~2024.04.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 〈바스커빌 : 셜록홈즈 미스터리〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.28~2024.06.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24아트원 3관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음악극 〈캐롤〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.05~2024.04.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대학로 예그린씨어터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 〈이프아이월유〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.12~2024.06.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24스테이지 3관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[창원] 디즈니 인 콘서트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.01~2024.05.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.15아트센터 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 뮤지컬 천로역정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.12.09~2024.05.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명륜아트홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[인천] 나훈아 ‘2024 고마웠습니다-라스트 콘서트(LAST CONCERT)’</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천 송도컨벤시아 전시장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 [디아길레프]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.19~2024.06.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24아트원 1관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[부산] 연극 [편의점진상들]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.14~2024.07.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BNK부산은행조은극장 2관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.8%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 [디어 에반 핸슨] （Dear Evan Hansen）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.28~2024.06.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충무아트센터 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[대전] 뮤지컬 [공룡이 살아있다]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 우송예술회관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리얼뱅크시 REAL BANKSY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.10~2024.10.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그라운드서울 기획전시관 (구.아라아트센터)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[대구] 2024 가족라이브뮤지컬 [아기돼지삼형제]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.04~2024.05.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대백프라자 10F 프라임홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[부산] 2024 이미자 노래인생 65주년 기념 음악회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.11~2024.05.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드림씨어터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.6%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특전소녀전선 스프링리그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.04~2024.05.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24 원더로크홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[울산] 2024 라이브가족뮤지컬 〈이상한나라의앨리스〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.25~2024.05.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산 북구문화예술회관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스투파의 숲， 신비로운 인도 이야기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.12.22~2024.04.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국립중앙박물관 기획전시실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[부산] 2024 앤서니브라운 가족뮤지컬 〈우리아빠가최고야〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산 해운대문화회관 해운홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[여수] 2024 김창옥 토크콘서트 시즌4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.06.08~2024.06.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS칼텍스 예울마루 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[광주] 2024 YB TOUR LIGHTS ; INFINITY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.18~2024.05.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김대중컨벤션센터 다목적홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[부산] 뮤지컬 [JUMP 점프]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KBS부산홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[청주] 뮤지컬 [이상한 과자 가게 전천당] - 천옥원， 소원과자 대결전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청주 예술의전당 대공연장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[구미] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구미 강동문화복지회관 천생아트홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[성남] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.20~2024.04.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성남아트리움 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42위</x:t>
+    <x:t>[김해] 피아노 듀오 아인클랑과 함께하는 세계음악여행Ⅱ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.27~2024.04.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[창원] 2024 가정의 달 특집 효(孝)콘서트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.08~2024.05.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창원성산아트홀 대극장</x:t>
   </x:si>
   <x:si>
     <x:t>[창원] 2024 화요모닝콘서트 - 5월 [Morning date with 스윗소로우]</x:t>
@@ -588,328 +1080,40 @@
     <x:t>창원성산아트홀 소극장</x:t>
   </x:si>
   <x:si>
-    <x:t>0.4%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히사이시 조 영화음악 콘서트 2024_부천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.12~2024.05.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부천아트센터 콘서트홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[하남] 뮤지컬 〈친구의 전설〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.18~2024.05.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하남문화예술회관 검단홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 〈실종법칙 (MISSING)〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.10~2024.05.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술의전당 자유소극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울바앤스피릿쇼 2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성동 코엑스 B홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[부산] [코믹연극] 달동네</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.04.28~2024.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산 초콜릿 팩토리 소극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해리 포터와 불사조 기사단™ 인 콘서트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[춘천] 2024 김창옥 토크콘서트 시즌4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>춘천 강원대학교 백령아트센터(구.백령문화관)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[대전] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전 평송청소년문화센터 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.3%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11.1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.8%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.3%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.6%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[창원] 헬로카봇 뮤지컬 시즌7 〈웰컴 투 파라다이스〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창원 3.15아트센터 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패밀리 서커스 〈이상한 나라의 앨리스〉 오리지널 내한공연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSPIRE ARENA(인스파이어 아레나)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[청주] 가족뮤지컬 [꼬마버스 타요 - 용감한 구조대 레스큐 타요]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청주아트홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 〈벚꽃 팝콘〉 - 부천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부천시민회관 대공연장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬〈더 트라이브 THE TRIBE〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.19~2024.05.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세종문화회관 S씨어터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤지컬 [낭만별곡]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예스24아트원 2관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창작가무극 〈천 개의 파랑〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.12~2024.05.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술의전당 CJ 토월극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.8%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 연극 〈친정엄마와 2박3일〉 - 전주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.26~2024.04.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북대학교 삼성문화회관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.3%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포연극 [자취]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.01~2024.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대학로 댕로홀 (구 두레홀1관)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 [수상한 흥신소]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.06.28~2024.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소극장 선물 1관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 〈욘 John〉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.29~2024.04.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세종문화회관 M씨어터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 [나는 왜 없지 않고 있는가?]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.05~2024.04.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>씨어터 쿰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연극 [출입국사무소의 오이디푸스]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.13~2024.04.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대학로 아르코예술극장 소극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[부산] 연극 [룸메이트 : 스파이크]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.19~2024.05.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어댑터 플레이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.6%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11.2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.8%</x:t>
+    <x:t>[창원] 2024 주현미 콘서트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.09~2024.05.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진해문화센터 야외공연장</x:t>
   </x:si>
   <x:si>
     <x:t>[성남] 2024 김창옥 토크콘서트 시즌4</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.04.14~2024.04.14</x:t>
-  </x:si>
-  <x:si>
     <x:t>성남아트센터 오페라하우스</x:t>
   </x:si>
   <x:si>
+    <x:t>어쿠스틱 신드롬 : 몽니, 포르테 디 콰트로, 오은철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.21~2024.04.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[여수] 2024 주현미 콘서트 [The Original]</x:t>
+  </x:si>
+  <x:si>
     <x:t>믹스믹스 ‘10YEARS STRONG’</x:t>
   </x:si>
   <x:si>
     <x:t>에스팩토리</x:t>
   </x:si>
   <x:si>
-    <x:t>[김해] 피아노 듀오 아인클랑과 함께하는 세계음악여행Ⅱ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.27~2024.04.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김해문화의전당 마루홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[창원] 2024 가정의 달 특집 효(孝)콘서트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.08~2024.05.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창원성산아트홀 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어쿠스틱 신드롬 : 몽니, 포르테 디 콰트로, 오은철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.21~2024.04.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롯데콘서트홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[창원] 2024 주현미 콘서트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.09~2024.05.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진해문화센터 야외공연장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UFO STATION Ep.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.03~2024.05.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성수동 에스팩토리 D동 3층</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELEPHANT GYM - The ＂World＂ Tour in Seoul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.20~2024.04.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨스트브릿지 라이브홀</x:t>
+    <x:t>[제주] 2024 김창옥 토크콘서트 시즌4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주아트센터 대극장</x:t>
   </x:si>
   <x:si>
     <x:t>[VIP패키지] 아타라시이 각코!(ATARASHII GAKKO!) 첫 내한공연</x:t>
@@ -921,22 +1125,10 @@
     <x:t>YES24 LIVE HALL</x:t>
   </x:si>
   <x:si>
+    <x:t>LOUD BRIDGE FESTIVAL SEOUL 2024</x:t>
+  </x:si>
+  <x:si>
     <x:t>DURDN 1st Asia Tour ＂Komorebi＂</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[창원] SUPER! 수요콘서트 「4월 기타리스트 장하은 콘서트」</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.24~2024.04.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[제주] 2024 김창옥 토크콘서트 시즌4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주아트센터 대극장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOUD BRIDGE FESTIVAL SEOUL 2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1612,10 +1804,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1629,27 +1821,27 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1666,279 +1858,279 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="E26" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1955,7 +2147,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
@@ -1972,7 +2164,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -1989,7 +2181,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -2000,30 +2192,30 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="C37" s="1" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="D37" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="E37" s="1" t="s">
-        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
@@ -2040,7 +2232,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -2051,13 +2243,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -2068,64 +2260,64 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="C41" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E41" s="1" t="s">
-        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
@@ -2142,7 +2334,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
@@ -2153,47 +2345,47 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
-        <x:v>189</x:v>
-      </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B46" s="1" t="s">
+      <x:c r="C46" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="C46" s="1" t="s">
+      <x:c r="D46" s="1" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="B47" s="1" t="s">
+      <x:c r="C47" s="1" t="s">
         <x:v>195</x:v>
-      </x:c>
-      <x:c r="C47" s="1" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
@@ -2210,7 +2402,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
@@ -2221,47 +2413,47 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2316,16 +2508,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -2333,16 +2525,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -2359,7 +2551,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -2367,16 +2559,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -2384,16 +2576,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -2401,16 +2593,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -2418,16 +2610,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -2435,16 +2627,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -2452,16 +2644,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -2469,16 +2661,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -2486,16 +2678,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -2503,16 +2695,16 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -2520,33 +2712,33 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -2554,254 +2746,424 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="C30" s="1" t="s">
+      <x:c r="C32" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
-        <x:v>181</x:v>
+      <x:c r="C33" s="1" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E34" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="E38" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E39" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
+        <x:v>245</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2856,16 +3218,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -2873,16 +3235,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -2890,16 +3252,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -2907,16 +3269,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -2924,16 +3286,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -2941,16 +3303,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -2958,16 +3320,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -2975,16 +3337,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -2992,16 +3354,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -3009,16 +3371,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -3026,16 +3388,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -3043,16 +3405,16 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -3060,16 +3422,33 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3123,7 +3502,225 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="B25" s="0" t="s"/>
@@ -3176,7 +3773,123 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
@@ -3225,6 +3938,397 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
     <x:row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="B30" s="0" t="s"/>
     </x:row>
@@ -3274,16 +4378,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -3291,16 +4395,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -3308,16 +4412,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -3325,16 +4429,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -3342,16 +4446,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -3365,10 +4469,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -3376,16 +4480,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -3393,16 +4497,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -3410,16 +4514,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -3427,16 +4531,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -3444,16 +4548,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -3461,16 +4565,16 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -3478,33 +4582,33 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>266</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>269</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -3512,220 +4616,220 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>271</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>274</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>276</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>277</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>278</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>279</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>280</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>282</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E21" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>283</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>284</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>285</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E22" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>286</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>287</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>288</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E23" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>289</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>290</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
-        <x:v>291</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E24" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>292</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E25" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>293</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>294</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>295</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>296</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>297</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>291</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
